--- a/webscript/usat/usat-energy.xlsx
+++ b/webscript/usat/usat-energy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="297">
   <si>
     <t>comp_count</t>
   </si>
@@ -1262,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G515"/>
+  <dimension ref="A1:G516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>19890930</v>
+        <v>19890630</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1495,21 +1495,21 @@
         <v>296</v>
       </c>
       <c r="G10">
-        <v>19890701</v>
+        <v>19890401</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>19891231</v>
+        <v>19890930</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1518,21 +1518,21 @@
         <v>296</v>
       </c>
       <c r="G11">
-        <v>19891001</v>
+        <v>19890701</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
-        <v>19900331</v>
+        <v>19891231</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>296</v>
       </c>
       <c r="G12">
-        <v>19900101</v>
+        <v>19891001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>19900630</v>
+        <v>19900331</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -1564,21 +1564,21 @@
         <v>296</v>
       </c>
       <c r="G13">
-        <v>19900401</v>
+        <v>19900101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14">
-        <v>19900930</v>
+        <v>19900630</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1587,21 +1587,21 @@
         <v>296</v>
       </c>
       <c r="G14">
-        <v>19900701</v>
+        <v>19900401</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15">
-        <v>19901231</v>
+        <v>19900930</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1610,21 +1610,21 @@
         <v>296</v>
       </c>
       <c r="G15">
-        <v>19901001</v>
+        <v>19900701</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>19910331</v>
+        <v>19901231</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1633,21 +1633,21 @@
         <v>296</v>
       </c>
       <c r="G16">
-        <v>19910101</v>
+        <v>19901001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>19910630</v>
+        <v>19910331</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1656,21 +1656,21 @@
         <v>296</v>
       </c>
       <c r="G17">
-        <v>19910401</v>
+        <v>19910101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18">
-        <v>19910930</v>
+        <v>19910630</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1679,21 +1679,21 @@
         <v>296</v>
       </c>
       <c r="G18">
-        <v>19910701</v>
+        <v>19910401</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19">
-        <v>19911231</v>
+        <v>19910930</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1702,21 +1702,21 @@
         <v>296</v>
       </c>
       <c r="G19">
-        <v>19911001</v>
+        <v>19910701</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>19920331</v>
+        <v>19911231</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1725,21 +1725,21 @@
         <v>296</v>
       </c>
       <c r="G20">
-        <v>19920101</v>
+        <v>19911001</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>19920630</v>
+        <v>19920331</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1748,21 +1748,21 @@
         <v>296</v>
       </c>
       <c r="G21">
-        <v>19920401</v>
+        <v>19920101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>19920930</v>
+        <v>19920630</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1771,21 +1771,21 @@
         <v>296</v>
       </c>
       <c r="G22">
-        <v>19920701</v>
+        <v>19920401</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>19921231</v>
+        <v>19920930</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1794,21 +1794,21 @@
         <v>296</v>
       </c>
       <c r="G23">
-        <v>19921001</v>
+        <v>19920701</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>19930331</v>
+        <v>19921231</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1817,21 +1817,21 @@
         <v>296</v>
       </c>
       <c r="G24">
-        <v>19930101</v>
+        <v>19921001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>19930630</v>
+        <v>19930331</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1840,21 +1840,21 @@
         <v>296</v>
       </c>
       <c r="G25">
-        <v>19930401</v>
+        <v>19930101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>19930930</v>
+        <v>19930630</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1863,21 +1863,21 @@
         <v>296</v>
       </c>
       <c r="G26">
-        <v>19930701</v>
+        <v>19930401</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>19931231</v>
+        <v>19930930</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1886,21 +1886,21 @@
         <v>296</v>
       </c>
       <c r="G27">
-        <v>19931001</v>
+        <v>19930701</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>19940331</v>
+        <v>19931231</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1909,21 +1909,21 @@
         <v>296</v>
       </c>
       <c r="G28">
-        <v>19940101</v>
+        <v>19931001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>19940630</v>
+        <v>19940331</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1932,21 +1932,21 @@
         <v>296</v>
       </c>
       <c r="G29">
-        <v>19940401</v>
+        <v>19940101</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>19940930</v>
+        <v>19940630</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1955,21 +1955,21 @@
         <v>296</v>
       </c>
       <c r="G30">
-        <v>19940701</v>
+        <v>19940401</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>19941231</v>
+        <v>19940930</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1978,21 +1978,21 @@
         <v>296</v>
       </c>
       <c r="G31">
-        <v>19941001</v>
+        <v>19940701</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>19950331</v>
+        <v>19941231</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2001,21 +2001,21 @@
         <v>296</v>
       </c>
       <c r="G32">
-        <v>19950101</v>
+        <v>19941001</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>19950630</v>
+        <v>19950331</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2024,21 +2024,21 @@
         <v>296</v>
       </c>
       <c r="G33">
-        <v>19950401</v>
+        <v>19950101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>19950930</v>
+        <v>19950630</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2047,21 +2047,21 @@
         <v>296</v>
       </c>
       <c r="G34">
-        <v>19950701</v>
+        <v>19950401</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>19951231</v>
+        <v>19950930</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2070,21 +2070,21 @@
         <v>296</v>
       </c>
       <c r="G35">
-        <v>19951001</v>
+        <v>19950701</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
-        <v>19960331</v>
+        <v>19951231</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2093,21 +2093,21 @@
         <v>296</v>
       </c>
       <c r="G36">
-        <v>19960101</v>
+        <v>19951001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>19960630</v>
+        <v>19960331</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2116,22 +2116,22 @@
         <v>296</v>
       </c>
       <c r="G37">
-        <v>19960401</v>
+        <v>19960101</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>19960630</v>
+      </c>
+      <c r="D38">
         <v>8</v>
       </c>
-      <c r="C38">
-        <v>19960930</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
-      </c>
       <c r="E38">
         <v>1</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>296</v>
       </c>
       <c r="G38">
-        <v>19960701</v>
+        <v>19960401</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2147,22 +2147,22 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>19961231</v>
+        <v>19960930</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>296</v>
       </c>
       <c r="G39">
-        <v>19961001</v>
+        <v>19960701</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>19961231</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>19961231</v>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>19961231</v>
@@ -2239,22 +2239,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>19970331</v>
+        <v>19961231</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>296</v>
       </c>
       <c r="G43">
-        <v>19970101</v>
+        <v>19961001</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>19970331</v>
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>19970331</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>19970331</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>19970331</v>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>19970331</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>19970331</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>19970331</v>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>19970331</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>19970331</v>
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>19970331</v>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>19970331</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>19970331</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>19970331</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>19970331</v>
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>19970331</v>
@@ -2607,22 +2607,22 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59">
-        <v>19970630</v>
+        <v>19970331</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>296</v>
       </c>
       <c r="G59">
-        <v>19970401</v>
+        <v>19970101</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2630,22 +2630,22 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60">
-        <v>19970930</v>
+        <v>19970630</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>296</v>
       </c>
       <c r="G60">
-        <v>19970701</v>
+        <v>19970401</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>19970930</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>19970930</v>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>19970930</v>
@@ -2719,25 +2719,25 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>19971231</v>
+        <v>19970930</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>296</v>
       </c>
       <c r="G64">
-        <v>19971001</v>
+        <v>19970701</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2745,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>19971231</v>
@@ -2768,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>19971231</v>
@@ -2791,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>19971231</v>
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68">
         <v>19971231</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <v>19971231</v>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>19971231</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71">
         <v>19971231</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>19971231</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>19971231</v>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>19971231</v>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>19971231</v>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76">
         <v>19971231</v>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77">
         <v>19971231</v>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <v>19971231</v>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79">
         <v>19971231</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80">
         <v>19971231</v>
@@ -3110,48 +3110,48 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>19971231</v>
+      </c>
+      <c r="D81">
         <v>7</v>
       </c>
-      <c r="C81">
-        <v>19980331</v>
-      </c>
-      <c r="D81">
-        <v>15</v>
-      </c>
       <c r="E81">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
         <v>296</v>
       </c>
       <c r="G81">
-        <v>19980101</v>
+        <v>19971001</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>19980630</v>
+        <v>19980331</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>296</v>
       </c>
       <c r="G82">
-        <v>19980401</v>
+        <v>19980101</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C83">
         <v>19980630</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C84">
         <v>19980630</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <v>19980630</v>
@@ -3228,22 +3228,22 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C86">
-        <v>19980930</v>
+        <v>19980630</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>296</v>
       </c>
       <c r="G86">
-        <v>19980701</v>
+        <v>19980401</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C87">
         <v>19980930</v>
@@ -3274,22 +3274,22 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C88">
-        <v>19981231</v>
+        <v>19980930</v>
       </c>
       <c r="D88">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>296</v>
       </c>
       <c r="G88">
-        <v>19981001</v>
+        <v>19980701</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89">
         <v>19981231</v>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>19981231</v>
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C91">
         <v>19981231</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92">
         <v>19981231</v>
@@ -3389,22 +3389,22 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93">
-        <v>19990331</v>
+        <v>19981231</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
         <v>296</v>
       </c>
       <c r="G93">
-        <v>19990101</v>
+        <v>19981001</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3412,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C94">
         <v>19990331</v>
@@ -3432,39 +3432,39 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C95">
-        <v>19990630</v>
+        <v>19990331</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>296</v>
       </c>
       <c r="G95">
-        <v>19990401</v>
+        <v>19990101</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>19990930</v>
+        <v>19990630</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>296</v>
       </c>
       <c r="G96">
-        <v>19990701</v>
+        <v>19990401</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3481,22 +3481,22 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C97">
-        <v>19991231</v>
+        <v>19990930</v>
       </c>
       <c r="D97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>296</v>
       </c>
       <c r="G97">
-        <v>19991001</v>
+        <v>19990701</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98">
         <v>19991231</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C99">
         <v>19991231</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C100">
         <v>19991231</v>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C101">
         <v>19991231</v>
@@ -3596,22 +3596,22 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C102">
-        <v>20000331</v>
+        <v>19991231</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
         <v>296</v>
       </c>
       <c r="G102">
-        <v>20000101</v>
+        <v>19991001</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C103">
         <v>20000331</v>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104">
         <v>20000331</v>
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C105">
         <v>20000331</v>
@@ -3688,22 +3688,22 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C106">
-        <v>20000630</v>
+        <v>20000331</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
         <v>296</v>
       </c>
       <c r="G106">
-        <v>20000401</v>
+        <v>20000101</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3711,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C107">
         <v>20000630</v>
@@ -3731,16 +3731,16 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>63</v>
       </c>
       <c r="C108">
-        <v>20000930</v>
+        <v>20000630</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3749,15 +3749,15 @@
         <v>296</v>
       </c>
       <c r="G108">
-        <v>20000701</v>
+        <v>20000401</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C109">
         <v>20000930</v>
@@ -3777,39 +3777,39 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110">
+        <v>20000930</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
         <v>2</v>
       </c>
-      <c r="B110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110">
-        <v>20001231</v>
-      </c>
-      <c r="D110">
-        <v>11</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
       <c r="F110" t="s">
         <v>296</v>
       </c>
       <c r="G110">
-        <v>20001001</v>
+        <v>20000701</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C111">
-        <v>20010331</v>
+        <v>20001231</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3818,30 +3818,30 @@
         <v>296</v>
       </c>
       <c r="G111">
-        <v>20010101</v>
+        <v>20001001</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>20010630</v>
+        <v>20010331</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
         <v>296</v>
       </c>
       <c r="G112">
-        <v>20010401</v>
+        <v>20010101</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113">
         <v>20010630</v>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C114">
         <v>20010630</v>
@@ -3892,25 +3892,25 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C115">
-        <v>20010930</v>
+        <v>20010630</v>
       </c>
       <c r="D115">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F115" t="s">
         <v>296</v>
       </c>
       <c r="G115">
-        <v>20010701</v>
+        <v>20010401</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C116">
         <v>20010930</v>
@@ -3938,10 +3938,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C117">
         <v>20010930</v>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C118">
         <v>20010930</v>
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C119">
         <v>20010930</v>
@@ -4007,56 +4007,56 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C120">
-        <v>20011231</v>
+        <v>20010930</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F120" t="s">
         <v>296</v>
       </c>
       <c r="G120">
-        <v>20011001</v>
+        <v>20010701</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C121">
-        <v>20020331</v>
+        <v>20011231</v>
       </c>
       <c r="D121">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
         <v>296</v>
       </c>
       <c r="G121">
-        <v>20020101</v>
+        <v>20011001</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C122">
         <v>20020331</v>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C123">
         <v>20020331</v>
@@ -4099,33 +4099,33 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>20020630</v>
+        <v>20020331</v>
       </c>
       <c r="D124">
         <v>21</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F124" t="s">
         <v>296</v>
       </c>
       <c r="G124">
-        <v>20020401</v>
+        <v>20020101</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C125">
         <v>20020630</v>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C126">
         <v>20020630</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127">
         <v>20020630</v>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C128">
         <v>20020630</v>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C129">
         <v>20020630</v>
@@ -4237,33 +4237,33 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C130">
-        <v>20020930</v>
+        <v>20020630</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E130">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F130" t="s">
         <v>296</v>
       </c>
       <c r="G130">
-        <v>20020701</v>
+        <v>20020401</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C131">
         <v>20020930</v>
@@ -4286,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C132">
         <v>20020930</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>20020930</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C134">
         <v>20020930</v>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>20020930</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136">
         <v>20020930</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C137">
         <v>20020930</v>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C138">
         <v>20020930</v>
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C139">
         <v>20020930</v>
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C140">
         <v>20020930</v>
@@ -4490,25 +4490,25 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C141">
-        <v>20021231</v>
+        <v>20020930</v>
       </c>
       <c r="D141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
         <v>296</v>
       </c>
       <c r="G141">
-        <v>20021001</v>
+        <v>20020701</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4516,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C142">
         <v>20021231</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C143">
         <v>20021231</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C144">
         <v>20021231</v>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C145">
         <v>20021231</v>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C146">
         <v>20021231</v>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C147">
         <v>20021231</v>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C148">
         <v>20021231</v>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C149">
         <v>20021231</v>
@@ -4700,22 +4700,22 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C150">
-        <v>20030331</v>
+        <v>20021231</v>
       </c>
       <c r="D150">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
         <v>296</v>
       </c>
       <c r="G150">
-        <v>20030101</v>
+        <v>20021001</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C151">
         <v>20030331</v>
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C152">
         <v>20030331</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C153">
         <v>20030331</v>
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C154">
         <v>20030331</v>
@@ -4812,48 +4812,48 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C155">
-        <v>20030630</v>
+        <v>20030331</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" t="s">
         <v>296</v>
       </c>
       <c r="G155">
-        <v>20030401</v>
+        <v>20030101</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C156">
-        <v>20030930</v>
+        <v>20030630</v>
       </c>
       <c r="D156">
         <v>14</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
         <v>296</v>
       </c>
       <c r="G156">
-        <v>20030701</v>
+        <v>20030401</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4861,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C157">
         <v>20030930</v>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C158">
         <v>20030930</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C159">
         <v>20030930</v>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C160">
         <v>20030930</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C161">
         <v>20030930</v>
@@ -4976,22 +4976,22 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C162">
-        <v>20031231</v>
+        <v>20030930</v>
       </c>
       <c r="D162">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F162" t="s">
         <v>296</v>
       </c>
       <c r="G162">
-        <v>20031001</v>
+        <v>20030701</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C163">
         <v>20031231</v>
@@ -5022,13 +5022,13 @@
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C164">
-        <v>20040331</v>
+        <v>20031231</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -5037,7 +5037,7 @@
         <v>296</v>
       </c>
       <c r="G164">
-        <v>20040101</v>
+        <v>20031001</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C165">
         <v>20040331</v>
@@ -5068,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C166">
-        <v>20040630</v>
+        <v>20040331</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -5083,7 +5083,7 @@
         <v>296</v>
       </c>
       <c r="G166">
-        <v>20040401</v>
+        <v>20040101</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C167">
         <v>20040630</v>
@@ -5114,22 +5114,22 @@
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C168">
-        <v>20040930</v>
+        <v>20040630</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F168" t="s">
         <v>296</v>
       </c>
       <c r="G168">
-        <v>20040701</v>
+        <v>20040401</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C169">
         <v>20040930</v>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C170">
         <v>20040930</v>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C171">
         <v>20040930</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C172">
         <v>20040930</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C173">
         <v>20040930</v>
@@ -5252,22 +5252,22 @@
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C174">
-        <v>20041231</v>
+        <v>20040930</v>
       </c>
       <c r="D174">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F174" t="s">
         <v>296</v>
       </c>
       <c r="G174">
-        <v>20041001</v>
+        <v>20040701</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C175">
         <v>20041231</v>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C176">
         <v>20041231</v>
@@ -5318,56 +5318,56 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C177">
-        <v>20050331</v>
+        <v>20041231</v>
       </c>
       <c r="D177">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="s">
         <v>296</v>
       </c>
       <c r="G177">
-        <v>20050101</v>
+        <v>20041001</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C178">
-        <v>20050630</v>
+        <v>20050331</v>
       </c>
       <c r="D178">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
         <v>296</v>
       </c>
       <c r="G178">
-        <v>20050401</v>
+        <v>20050101</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C179">
         <v>20050630</v>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C180">
         <v>20050630</v>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C181">
         <v>20050630</v>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C182">
         <v>20050630</v>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C183">
         <v>20050630</v>
@@ -5482,22 +5482,22 @@
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C184">
-        <v>20050930</v>
+        <v>20050630</v>
       </c>
       <c r="D184">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E184">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F184" t="s">
         <v>296</v>
       </c>
       <c r="G184">
-        <v>20050701</v>
+        <v>20050401</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C185">
         <v>20050930</v>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C186">
         <v>20050930</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C187">
         <v>20050930</v>
@@ -5571,33 +5571,33 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C188">
-        <v>20051231</v>
+        <v>20050930</v>
       </c>
       <c r="D188">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F188" t="s">
         <v>296</v>
       </c>
       <c r="G188">
-        <v>20051001</v>
+        <v>20050701</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C189">
         <v>20051231</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C190">
         <v>20051231</v>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C191">
         <v>20051231</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C192">
         <v>20051231</v>
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C193">
         <v>20051231</v>
@@ -5712,22 +5712,22 @@
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C194">
-        <v>20060331</v>
+        <v>20051231</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F194" t="s">
         <v>296</v>
       </c>
       <c r="G194">
-        <v>20060101</v>
+        <v>20051001</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C195">
         <v>20060331</v>
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C196">
         <v>20060331</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C197">
         <v>20060331</v>
@@ -5804,22 +5804,22 @@
         <v>1</v>
       </c>
       <c r="B198" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C198">
-        <v>20060630</v>
+        <v>20060331</v>
       </c>
       <c r="D198">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F198" t="s">
         <v>296</v>
       </c>
       <c r="G198">
-        <v>20060401</v>
+        <v>20060101</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C199">
         <v>20060630</v>
@@ -5850,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C200">
         <v>20060630</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C201">
         <v>20060630</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C202">
         <v>20060630</v>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C203">
         <v>20060630</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C204">
         <v>20060630</v>
@@ -5962,33 +5962,33 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C205">
-        <v>20060930</v>
+        <v>20060630</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
         <v>296</v>
       </c>
       <c r="G205">
-        <v>20060701</v>
+        <v>20060401</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C206">
         <v>20060930</v>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="B207" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C207">
         <v>20060930</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C208">
         <v>20060930</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C209">
         <v>20060930</v>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="C210">
         <v>20060930</v>
@@ -6103,22 +6103,22 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C211">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F211" t="s">
         <v>296</v>
       </c>
       <c r="G211">
-        <v>20061001</v>
+        <v>20060701</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C212">
         <v>20061231</v>
@@ -6149,22 +6149,22 @@
         <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C213">
-        <v>20070331</v>
+        <v>20061231</v>
       </c>
       <c r="D213">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
         <v>296</v>
       </c>
       <c r="G213">
-        <v>20070101</v>
+        <v>20061001</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C214">
         <v>20070331</v>
@@ -6195,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C215">
         <v>20070331</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C216">
         <v>20070331</v>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C217">
         <v>20070331</v>
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C218">
         <v>20070331</v>
@@ -6287,22 +6287,22 @@
         <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C219">
-        <v>20070630</v>
+        <v>20070331</v>
       </c>
       <c r="D219">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E219">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F219" t="s">
         <v>296</v>
       </c>
       <c r="G219">
-        <v>20070401</v>
+        <v>20070101</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C220">
         <v>20070630</v>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C221">
         <v>20070630</v>
@@ -6356,13 +6356,13 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C222">
-        <v>20070930</v>
+        <v>20070630</v>
       </c>
       <c r="D222">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E222">
         <v>3</v>
@@ -6371,7 +6371,7 @@
         <v>296</v>
       </c>
       <c r="G222">
-        <v>20070701</v>
+        <v>20070401</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C223">
         <v>20070930</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C224">
         <v>20070930</v>
@@ -6425,13 +6425,13 @@
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C225">
-        <v>20071231</v>
+        <v>20070930</v>
       </c>
       <c r="D225">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E225">
         <v>3</v>
@@ -6440,7 +6440,7 @@
         <v>296</v>
       </c>
       <c r="G225">
-        <v>20071001</v>
+        <v>20070701</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C226">
         <v>20071231</v>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C227">
         <v>20071231</v>
@@ -6494,22 +6494,22 @@
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228">
-        <v>20080331</v>
+        <v>20071231</v>
       </c>
       <c r="D228">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F228" t="s">
         <v>296</v>
       </c>
       <c r="G228">
-        <v>20080101</v>
+        <v>20071001</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6517,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C229">
         <v>20080331</v>
@@ -6540,22 +6540,22 @@
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C230">
-        <v>20080630</v>
+        <v>20080331</v>
       </c>
       <c r="D230">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E230">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F230" t="s">
         <v>296</v>
       </c>
       <c r="G230">
-        <v>20080401</v>
+        <v>20080101</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>20080630</v>
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C232">
         <v>20080630</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="B233" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C233">
         <v>20080630</v>
@@ -6632,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C234">
         <v>20080630</v>
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C235">
         <v>20080630</v>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C236">
         <v>20080630</v>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C237">
         <v>20080630</v>
@@ -6724,22 +6724,22 @@
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C238">
-        <v>20080930</v>
+        <v>20080630</v>
       </c>
       <c r="D238">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F238" t="s">
         <v>296</v>
       </c>
       <c r="G238">
-        <v>20080701</v>
+        <v>20080401</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="C239">
         <v>20080930</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C240">
         <v>20080930</v>
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
       <c r="B241" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C241">
-        <v>20081231</v>
+        <v>20080930</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -6808,7 +6808,7 @@
         <v>296</v>
       </c>
       <c r="G241">
-        <v>20081001</v>
+        <v>20080701</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C242">
         <v>20081231</v>
@@ -6839,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C243">
         <v>20081231</v>
@@ -6862,22 +6862,22 @@
         <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C244">
-        <v>20090331</v>
+        <v>20081231</v>
       </c>
       <c r="D244">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E244">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F244" t="s">
         <v>296</v>
       </c>
       <c r="G244">
-        <v>20090101</v>
+        <v>20081001</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C245">
         <v>20090331</v>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C246">
         <v>20090331</v>
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C247">
         <v>20090331</v>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C248">
         <v>20090331</v>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C249">
         <v>20090331</v>
@@ -7000,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="C250">
         <v>20090331</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C251">
         <v>20090331</v>
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C252">
         <v>20090331</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C253">
         <v>20090331</v>
@@ -7089,33 +7089,33 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="C254">
-        <v>20090630</v>
+        <v>20090331</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F254" t="s">
         <v>296</v>
       </c>
       <c r="G254">
-        <v>20090401</v>
+        <v>20090101</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B255" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C255">
         <v>20090630</v>
@@ -7138,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C256">
         <v>20090630</v>
@@ -7161,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C257">
         <v>20090630</v>
@@ -7184,22 +7184,22 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C258">
-        <v>20090930</v>
+        <v>20090630</v>
       </c>
       <c r="D258">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F258" t="s">
         <v>296</v>
       </c>
       <c r="G258">
-        <v>20090701</v>
+        <v>20090401</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7207,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C259">
         <v>20090930</v>
@@ -7230,22 +7230,22 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C260">
-        <v>20091231</v>
+        <v>20090930</v>
       </c>
       <c r="D260">
         <v>9</v>
       </c>
       <c r="E260">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F260" t="s">
         <v>296</v>
       </c>
       <c r="G260">
-        <v>20091001</v>
+        <v>20090701</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C261">
         <v>20091231</v>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C262">
         <v>20091231</v>
@@ -7299,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C263">
         <v>20091231</v>
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="C264">
         <v>20091231</v>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C265">
         <v>20091231</v>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="C266">
         <v>20091231</v>
@@ -7391,22 +7391,22 @@
         <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C267">
-        <v>20100331</v>
+        <v>20091231</v>
       </c>
       <c r="D267">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E267">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F267" t="s">
         <v>296</v>
       </c>
       <c r="G267">
-        <v>20100101</v>
+        <v>20091001</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7414,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C268">
         <v>20100331</v>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C269">
         <v>20100331</v>
@@ -7460,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C270">
         <v>20100331</v>
@@ -7480,33 +7480,33 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C271">
-        <v>20100630</v>
+        <v>20100331</v>
       </c>
       <c r="D271">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F271" t="s">
         <v>296</v>
       </c>
       <c r="G271">
-        <v>20100401</v>
+        <v>20100101</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C272">
         <v>20100630</v>
@@ -7526,10 +7526,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="C273">
         <v>20100630</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C274">
         <v>20100630</v>
@@ -7575,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C275">
         <v>20100630</v>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="C276">
         <v>20100630</v>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C277">
         <v>20100630</v>
@@ -7644,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C278">
         <v>20100630</v>
@@ -7664,33 +7664,33 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C279">
-        <v>20100930</v>
+        <v>20100630</v>
       </c>
       <c r="D279">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E279">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F279" t="s">
         <v>296</v>
       </c>
       <c r="G279">
-        <v>20100701</v>
+        <v>20100401</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C280">
         <v>20100930</v>
@@ -7713,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C281">
         <v>20100930</v>
@@ -7736,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="B282" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C282">
         <v>20100930</v>
@@ -7759,53 +7759,53 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="C283">
-        <v>20101231</v>
+        <v>20100930</v>
       </c>
       <c r="D283">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F283" t="s">
         <v>296</v>
       </c>
       <c r="G283">
-        <v>20101001</v>
+        <v>20100701</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B284" t="s">
         <v>40</v>
       </c>
       <c r="C284">
-        <v>20110331</v>
+        <v>20101231</v>
       </c>
       <c r="D284">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F284" t="s">
         <v>296</v>
       </c>
       <c r="G284">
-        <v>20110101</v>
+        <v>20101001</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C285">
         <v>20110331</v>
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="C286">
         <v>20110331</v>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C287">
         <v>20110331</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="C288">
         <v>20110331</v>
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C289">
         <v>20110331</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C290">
         <v>20110331</v>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C291">
         <v>20110331</v>
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C292">
         <v>20110331</v>
@@ -7989,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C293">
         <v>20110331</v>
@@ -8009,33 +8009,33 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="C294">
-        <v>20110630</v>
+        <v>20110331</v>
       </c>
       <c r="D294">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E294">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F294" t="s">
         <v>296</v>
       </c>
       <c r="G294">
-        <v>20110401</v>
+        <v>20110101</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C295">
         <v>20110630</v>
@@ -8058,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C296">
         <v>20110630</v>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C297">
         <v>20110630</v>
@@ -8101,48 +8101,48 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C298">
-        <v>20110930</v>
+        <v>20110630</v>
       </c>
       <c r="D298">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F298" t="s">
         <v>296</v>
       </c>
       <c r="G298">
-        <v>20110701</v>
+        <v>20110401</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C299">
-        <v>20111231</v>
+        <v>20110930</v>
       </c>
       <c r="D299">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E299">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F299" t="s">
         <v>296</v>
       </c>
       <c r="G299">
-        <v>20111001</v>
+        <v>20110701</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="C300">
         <v>20111231</v>
@@ -8173,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C301">
         <v>20111231</v>
@@ -8196,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C302">
         <v>20111231</v>
@@ -8219,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C303">
         <v>20111231</v>
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C304">
         <v>20111231</v>
@@ -8265,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C305">
         <v>20111231</v>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C306">
         <v>20111231</v>
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C307">
         <v>20111231</v>
@@ -8334,22 +8334,22 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C308">
-        <v>20120331</v>
+        <v>20111231</v>
       </c>
       <c r="D308">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E308">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F308" t="s">
         <v>296</v>
       </c>
       <c r="G308">
-        <v>20120101</v>
+        <v>20111001</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C309">
         <v>20120331</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C310">
         <v>20120331</v>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="C311">
         <v>20120331</v>
@@ -8426,22 +8426,22 @@
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="C312">
-        <v>20120630</v>
+        <v>20120331</v>
       </c>
       <c r="D312">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F312" t="s">
         <v>296</v>
       </c>
       <c r="G312">
-        <v>20120401</v>
+        <v>20120101</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C313">
         <v>20120630</v>
@@ -8475,50 +8475,50 @@
         <v>86</v>
       </c>
       <c r="C314">
-        <v>20120930</v>
+        <v>20120630</v>
       </c>
       <c r="D314">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F314" t="s">
         <v>296</v>
       </c>
       <c r="G314">
-        <v>20120701</v>
+        <v>20120401</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="C315">
-        <v>20121231</v>
+        <v>20120930</v>
       </c>
       <c r="D315">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E315">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F315" t="s">
         <v>296</v>
       </c>
       <c r="G315">
-        <v>20121001</v>
+        <v>20120701</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C316">
         <v>20121231</v>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="C317">
         <v>20121231</v>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C318">
         <v>20121231</v>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C319">
         <v>20121231</v>
@@ -8610,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C320">
         <v>20121231</v>
@@ -8633,22 +8633,22 @@
         <v>1</v>
       </c>
       <c r="B321" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C321">
-        <v>20130331</v>
+        <v>20121231</v>
       </c>
       <c r="D321">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E321">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F321" t="s">
         <v>296</v>
       </c>
       <c r="G321">
-        <v>20130101</v>
+        <v>20121001</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C322">
         <v>20130331</v>
@@ -8679,22 +8679,22 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C323">
-        <v>20130630</v>
+        <v>20130331</v>
       </c>
       <c r="D323">
         <v>11</v>
       </c>
       <c r="E323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F323" t="s">
         <v>296</v>
       </c>
       <c r="G323">
-        <v>20130401</v>
+        <v>20130101</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C324">
         <v>20130630</v>
@@ -8725,7 +8725,7 @@
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C325">
         <v>20130630</v>
@@ -8748,22 +8748,22 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C326">
-        <v>20130930</v>
+        <v>20130630</v>
       </c>
       <c r="D326">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E326">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F326" t="s">
         <v>296</v>
       </c>
       <c r="G326">
-        <v>20130701</v>
+        <v>20130401</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C327">
         <v>20130930</v>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C328">
         <v>20130930</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C329">
         <v>20130930</v>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C330">
         <v>20130930</v>
@@ -8863,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C331">
         <v>20130930</v>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C332">
         <v>20130930</v>
@@ -8909,22 +8909,22 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C333">
-        <v>20131231</v>
+        <v>20130930</v>
       </c>
       <c r="D333">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F333" t="s">
         <v>296</v>
       </c>
       <c r="G333">
-        <v>20131001</v>
+        <v>20130701</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8932,22 +8932,22 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="C334">
-        <v>20140331</v>
+        <v>20131231</v>
       </c>
       <c r="D334">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F334" t="s">
         <v>296</v>
       </c>
       <c r="G334">
-        <v>20140101</v>
+        <v>20131001</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C335">
         <v>20140331</v>
@@ -8978,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C336">
         <v>20140331</v>
@@ -9001,22 +9001,22 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C337">
-        <v>20140630</v>
+        <v>20140331</v>
       </c>
       <c r="D337">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E337">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F337" t="s">
         <v>296</v>
       </c>
       <c r="G337">
-        <v>20140401</v>
+        <v>20140101</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C338">
         <v>20140630</v>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C339">
         <v>20140630</v>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="C340">
         <v>20140630</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="B341" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="C341">
         <v>20140630</v>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C342">
         <v>20140630</v>
@@ -9139,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C343">
         <v>20140630</v>
@@ -9162,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="B344" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C344">
         <v>20140630</v>
@@ -9185,22 +9185,22 @@
         <v>1</v>
       </c>
       <c r="B345" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C345">
-        <v>20140930</v>
+        <v>20140630</v>
       </c>
       <c r="D345">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E345">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F345" t="s">
         <v>296</v>
       </c>
       <c r="G345">
-        <v>20140701</v>
+        <v>20140401</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="B346" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C346">
         <v>20140930</v>
@@ -9231,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="B347" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C347">
         <v>20140930</v>
@@ -9254,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="B348" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C348">
         <v>20140930</v>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="B349" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C349">
         <v>20140930</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="B350" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C350">
         <v>20140930</v>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C351">
         <v>20140930</v>
@@ -9343,33 +9343,33 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" t="s">
+        <v>184</v>
+      </c>
+      <c r="C352">
+        <v>20140930</v>
+      </c>
+      <c r="D352">
+        <v>17</v>
+      </c>
+      <c r="E352">
         <v>7</v>
       </c>
-      <c r="B352" t="s">
-        <v>213</v>
-      </c>
-      <c r="C352">
-        <v>20141231</v>
-      </c>
-      <c r="D352">
-        <v>31</v>
-      </c>
-      <c r="E352">
-        <v>10</v>
-      </c>
       <c r="F352" t="s">
         <v>296</v>
       </c>
       <c r="G352">
-        <v>20141001</v>
+        <v>20140701</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C353">
         <v>20141231</v>
@@ -9389,10 +9389,10 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B354" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="C354">
         <v>20141231</v>
@@ -9415,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="B355" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C355">
         <v>20141231</v>
@@ -9438,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="B356" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="C356">
         <v>20141231</v>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="B357" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="C357">
         <v>20141231</v>
@@ -9484,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="B358" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C358">
         <v>20141231</v>
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="B359" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C359">
         <v>20141231</v>
@@ -9530,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="B360" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="C360">
         <v>20141231</v>
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="B361" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C361">
         <v>20141231</v>
@@ -9573,33 +9573,33 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="C362">
-        <v>20150331</v>
+        <v>20141231</v>
       </c>
       <c r="D362">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E362">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F362" t="s">
         <v>296</v>
       </c>
       <c r="G362">
-        <v>20150101</v>
+        <v>20141001</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B363" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C363">
         <v>20150331</v>
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C364">
         <v>20150331</v>
@@ -9645,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="B365" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C365">
         <v>20150331</v>
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="B366" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C366">
         <v>20150331</v>
@@ -9691,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="B367" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="C367">
         <v>20150331</v>
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="B368" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="C368">
         <v>20150331</v>
@@ -9737,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="C369">
         <v>20150331</v>
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="B370" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="C370">
         <v>20150331</v>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C371">
         <v>20150331</v>
@@ -9806,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="C372">
         <v>20150331</v>
@@ -9829,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="B373" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="C373">
         <v>20150331</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="B374" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C374">
         <v>20150331</v>
@@ -9872,16 +9872,16 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C375">
-        <v>20150630</v>
+        <v>20150331</v>
       </c>
       <c r="D375">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E375">
         <v>13</v>
@@ -9890,7 +9890,7 @@
         <v>296</v>
       </c>
       <c r="G375">
-        <v>20150401</v>
+        <v>20150101</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9898,7 +9898,7 @@
         <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="C376">
         <v>20150630</v>
@@ -9921,7 +9921,7 @@
         <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C377">
         <v>20150630</v>
@@ -9941,10 +9941,10 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B378" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="C378">
         <v>20150630</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C379">
         <v>20150630</v>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="C380">
         <v>20150630</v>
@@ -10013,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C381">
         <v>20150630</v>
@@ -10036,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="C382">
         <v>20150630</v>
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="C383">
         <v>20150630</v>
@@ -10082,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="B384" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C384">
         <v>20150630</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="C385">
         <v>20150630</v>
@@ -10128,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="B386" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C386">
         <v>20150630</v>
@@ -10151,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="B387" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="C387">
         <v>20150630</v>
@@ -10171,33 +10171,33 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B388" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="C388">
-        <v>20150930</v>
+        <v>20150630</v>
       </c>
       <c r="D388">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E388">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F388" t="s">
         <v>296</v>
       </c>
       <c r="G388">
-        <v>20150701</v>
+        <v>20150401</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B389" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="C389">
         <v>20150930</v>
@@ -10220,7 +10220,7 @@
         <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C390">
         <v>20150930</v>
@@ -10243,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="B391" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="C391">
         <v>20150930</v>
@@ -10266,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="B392" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C392">
         <v>20150930</v>
@@ -10289,22 +10289,22 @@
         <v>1</v>
       </c>
       <c r="B393" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C393">
-        <v>20151231</v>
+        <v>20150930</v>
       </c>
       <c r="D393">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E393">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F393" t="s">
         <v>296</v>
       </c>
       <c r="G393">
-        <v>20151001</v>
+        <v>20150701</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -10312,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="B394" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C394">
         <v>20151231</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="B395" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="C395">
         <v>20151231</v>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="B396" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C396">
         <v>20151231</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="B397" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C397">
         <v>20151231</v>
@@ -10404,7 +10404,7 @@
         <v>1</v>
       </c>
       <c r="B398" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C398">
         <v>20151231</v>
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="B399" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C399">
         <v>20151231</v>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="B400" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C400">
         <v>20151231</v>
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="C401">
         <v>20151231</v>
@@ -10493,33 +10493,33 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B402" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C402">
-        <v>20160331</v>
+        <v>20151231</v>
       </c>
       <c r="D402">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E402">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F402" t="s">
         <v>296</v>
       </c>
       <c r="G402">
-        <v>20160101</v>
+        <v>20151001</v>
       </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B403" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C403">
         <v>20160331</v>
@@ -10539,10 +10539,10 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B404" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C404">
         <v>20160331</v>
@@ -10565,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="B405" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C405">
         <v>20160331</v>
@@ -10588,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="B406" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C406">
         <v>20160331</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="B407" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C407">
         <v>20160331</v>
@@ -10634,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="B408" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C408">
         <v>20160331</v>
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="B409" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C409">
         <v>20160331</v>
@@ -10680,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="B410" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C410">
         <v>20160331</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="B411" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C411">
         <v>20160331</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="B412" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C412">
         <v>20160331</v>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="B413" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="C413">
         <v>20160331</v>
@@ -10772,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="B414" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="C414">
         <v>20160331</v>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="B415" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C415">
         <v>20160331</v>
@@ -10818,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="B416" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="C416">
         <v>20160331</v>
@@ -10841,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="B417" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C417">
         <v>20160331</v>
@@ -10864,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="B418" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C418">
         <v>20160331</v>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="B419" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="C419">
         <v>20160331</v>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="B420" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="C420">
         <v>20160331</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="C421">
         <v>20160331</v>
@@ -10953,25 +10953,25 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B422" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C422">
-        <v>20160630</v>
+        <v>20160331</v>
       </c>
       <c r="D422">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E422">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F422" t="s">
         <v>296</v>
       </c>
       <c r="G422">
-        <v>20160401</v>
+        <v>20160101</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="B423" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="C423">
         <v>20160630</v>
@@ -10999,10 +10999,10 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C424">
         <v>20160630</v>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="B425" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="C425">
         <v>20160630</v>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="B426" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="C426">
         <v>20160630</v>
@@ -11071,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="B427" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C427">
         <v>20160630</v>
@@ -11094,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="B428" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C428">
         <v>20160630</v>
@@ -11117,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="B429" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C429">
         <v>20160630</v>
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="B430" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="C430">
         <v>20160630</v>
@@ -11163,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="B431" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="C431">
         <v>20160630</v>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="B432" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="C432">
         <v>20160630</v>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="B433" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="C433">
         <v>20160630</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="B434" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="C434">
         <v>20160630</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="B435" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C435">
         <v>20160630</v>
@@ -11278,7 +11278,7 @@
         <v>1</v>
       </c>
       <c r="B436" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="C436">
         <v>20160630</v>
@@ -11301,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="B437" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C437">
         <v>20160630</v>
@@ -11324,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="B438" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C438">
         <v>20160630</v>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="B439" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="C439">
         <v>20160630</v>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="B440" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C440">
         <v>20160630</v>
@@ -11393,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="B441" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="C441">
         <v>20160630</v>
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="B442" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="C442">
         <v>20160630</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="B443" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="C443">
         <v>20160630</v>
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="B444" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C444">
         <v>20160630</v>
@@ -11485,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="B445" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="C445">
         <v>20160630</v>
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="B446" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="C446">
         <v>20160630</v>
@@ -11531,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="B447" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C447">
         <v>20160630</v>
@@ -11554,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="B448" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C448">
         <v>20160630</v>
@@ -11577,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="B449" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C449">
         <v>20160630</v>
@@ -11600,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="B450" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C450">
         <v>20160630</v>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
       <c r="B451" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="C451">
         <v>20160630</v>
@@ -11643,33 +11643,33 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B452" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C452">
-        <v>20160930</v>
+        <v>20160630</v>
       </c>
       <c r="D452">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E452">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F452" t="s">
         <v>296</v>
       </c>
       <c r="G452">
-        <v>20160701</v>
+        <v>20160401</v>
       </c>
     </row>
     <row r="453" spans="1:7">
       <c r="A453">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B453" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="C453">
         <v>20160930</v>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="C454">
         <v>20160930</v>
@@ -11715,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="B455" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C455">
         <v>20160930</v>
@@ -11738,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="B456" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C456">
         <v>20160930</v>
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="B457" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="C457">
         <v>20160930</v>
@@ -11784,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="B458" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C458">
         <v>20160930</v>
@@ -11807,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="B459" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C459">
         <v>20160930</v>
@@ -11830,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="B460" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C460">
         <v>20160930</v>
@@ -11853,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="B461" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="C461">
         <v>20160930</v>
@@ -11876,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="C462">
         <v>20160930</v>
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="B463" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="C463">
         <v>20160930</v>
@@ -11922,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="B464" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C464">
         <v>20160930</v>
@@ -11942,33 +11942,33 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B465" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C465">
-        <v>20161231</v>
+        <v>20160930</v>
       </c>
       <c r="D465">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E465">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F465" t="s">
         <v>296</v>
       </c>
       <c r="G465">
-        <v>20161001</v>
+        <v>20160701</v>
       </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C466">
         <v>20161231</v>
@@ -11988,10 +11988,10 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B467" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C467">
         <v>20161231</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="B468" t="s">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="C468">
         <v>20161231</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="B469" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="C469">
         <v>20161231</v>
@@ -12060,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="B470" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C470">
         <v>20161231</v>
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="B471" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C471">
         <v>20161231</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="B472" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C472">
         <v>20161231</v>
@@ -12129,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="B473" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C473">
         <v>20161231</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="B474" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C474">
         <v>20161231</v>
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="B475" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C475">
         <v>20161231</v>
@@ -12198,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="B476" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="C476">
         <v>20161231</v>
@@ -12218,33 +12218,33 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B477" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="C477">
-        <v>20170331</v>
+        <v>20161231</v>
       </c>
       <c r="D477">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E477">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F477" t="s">
         <v>296</v>
       </c>
       <c r="G477">
-        <v>20170101</v>
+        <v>20161001</v>
       </c>
     </row>
     <row r="478" spans="1:7">
       <c r="A478">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B478" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="C478">
         <v>20170331</v>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B479" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="C479">
         <v>20170331</v>
@@ -12290,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="B480" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="C480">
         <v>20170331</v>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="B481" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="C481">
         <v>20170331</v>
@@ -12336,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="B482" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="C482">
         <v>20170331</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="B483" t="s">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="C483">
         <v>20170331</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="B484" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C484">
         <v>20170331</v>
@@ -12405,7 +12405,7 @@
         <v>1</v>
       </c>
       <c r="B485" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="C485">
         <v>20170331</v>
@@ -12425,16 +12425,16 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B486" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="C486">
-        <v>20170630</v>
+        <v>20170331</v>
       </c>
       <c r="D486">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E486">
         <v>9</v>
@@ -12443,15 +12443,15 @@
         <v>296</v>
       </c>
       <c r="G486">
-        <v>20170401</v>
+        <v>20170101</v>
       </c>
     </row>
     <row r="487" spans="1:7">
       <c r="A487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B487" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="C487">
         <v>20170630</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="B488" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C488">
         <v>20170630</v>
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="B489" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="C489">
         <v>20170630</v>
@@ -12520,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="B490" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="C490">
         <v>20170630</v>
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="B491" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="C491">
         <v>20170630</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="B492" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C492">
         <v>20170630</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="B493" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="C493">
         <v>20170630</v>
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="B494" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C494">
         <v>20170630</v>
@@ -12635,22 +12635,22 @@
         <v>1</v>
       </c>
       <c r="B495" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C495">
-        <v>20170930</v>
+        <v>20170630</v>
       </c>
       <c r="D495">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E495">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F495" t="s">
         <v>296</v>
       </c>
       <c r="G495">
-        <v>20170701</v>
+        <v>20170401</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="B496" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="C496">
         <v>20170930</v>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="B497" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C497">
         <v>20170930</v>
@@ -12704,13 +12704,13 @@
         <v>1</v>
       </c>
       <c r="B498" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C498">
-        <v>20171231</v>
+        <v>20170930</v>
       </c>
       <c r="D498">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E498">
         <v>3</v>
@@ -12719,7 +12719,7 @@
         <v>296</v>
       </c>
       <c r="G498">
-        <v>20171001</v>
+        <v>20170701</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -12727,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="B499" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C499">
         <v>20171231</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="B500" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C500">
         <v>20171231</v>
@@ -12770,33 +12770,33 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
+        <v>177</v>
+      </c>
+      <c r="C501">
+        <v>20171231</v>
+      </c>
+      <c r="D501">
+        <v>11</v>
+      </c>
+      <c r="E501">
         <v>3</v>
       </c>
-      <c r="B501" t="s">
-        <v>209</v>
-      </c>
-      <c r="C501">
-        <v>20180331</v>
-      </c>
-      <c r="D501">
-        <v>10</v>
-      </c>
-      <c r="E501">
-        <v>4</v>
-      </c>
       <c r="F501" t="s">
         <v>296</v>
       </c>
       <c r="G501">
-        <v>20180101</v>
+        <v>20171001</v>
       </c>
     </row>
     <row r="502" spans="1:7">
       <c r="A502">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B502" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="C502">
         <v>20180331</v>
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="B503" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C503">
         <v>20180331</v>
@@ -12842,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="B504" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="C504">
         <v>20180331</v>
@@ -12865,22 +12865,22 @@
         <v>1</v>
       </c>
       <c r="B505" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C505">
-        <v>20180630</v>
+        <v>20180331</v>
       </c>
       <c r="D505">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E505">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F505" t="s">
         <v>296</v>
       </c>
       <c r="G505">
-        <v>20180401</v>
+        <v>20180101</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12888,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="B506" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="C506">
         <v>20180630</v>
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="B507" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C507">
         <v>20180630</v>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="B508" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C508">
         <v>20180630</v>
@@ -12957,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="B509" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C509">
         <v>20180630</v>
@@ -12980,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="B510" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C510">
         <v>20180630</v>
@@ -13003,22 +13003,22 @@
         <v>1</v>
       </c>
       <c r="B511" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="C511">
-        <v>20180930</v>
+        <v>20180630</v>
       </c>
       <c r="D511">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E511">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F511" t="s">
         <v>296</v>
       </c>
       <c r="G511">
-        <v>20180701</v>
+        <v>20180401</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -13026,22 +13026,22 @@
         <v>1</v>
       </c>
       <c r="B512" t="s">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c r="C512">
-        <v>20181231</v>
+        <v>20180930</v>
       </c>
       <c r="D512">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E512">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F512" t="s">
         <v>296</v>
       </c>
       <c r="G512">
-        <v>20181001</v>
+        <v>20180701</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="B513" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C513">
         <v>20181231</v>
@@ -13072,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="B514" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C514">
         <v>20181231</v>
@@ -13095,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="B515" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="C515">
         <v>20181231</v>
@@ -13110,6 +13110,29 @@
         <v>296</v>
       </c>
       <c r="G515">
+        <v>20181001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516">
+        <v>1</v>
+      </c>
+      <c r="B516" t="s">
+        <v>184</v>
+      </c>
+      <c r="C516">
+        <v>20181231</v>
+      </c>
+      <c r="D516">
+        <v>9</v>
+      </c>
+      <c r="E516">
+        <v>4</v>
+      </c>
+      <c r="F516" t="s">
+        <v>296</v>
+      </c>
+      <c r="G516">
         <v>20181001</v>
       </c>
     </row>
